--- a/docs/Рассчет тепловыделения.xlsx
+++ b/docs/Рассчет тепловыделения.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Проекты\ramp-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Проекты\Micron-GLIN-v.2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Рассчет трансформатора Версия 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
-  <si>
-    <t>XTCLH10M000CHJA1P0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>DAC11001A</t>
   </si>
@@ -56,9 +54,6 @@
     <t>Total per line (mA)</t>
   </si>
   <si>
-    <t>Coil voltage (VDC)</t>
-  </si>
-  <si>
     <t>Effective IC consumption (W)</t>
   </si>
   <si>
@@ -68,9 +63,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>Dissipation on bridge and LDO:</t>
-  </si>
-  <si>
     <t>Transformer Iq:</t>
   </si>
   <si>
@@ -80,36 +72,18 @@
     <t>Quiescent transformer dissipation:</t>
   </si>
   <si>
-    <t>Dissipation on bridge and LDO (W)</t>
-  </si>
-  <si>
-    <t>ADA4522-4</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
-    <t>OPA353NA</t>
-  </si>
-  <si>
     <t>Storage cap ripple (V)</t>
   </si>
   <si>
     <t>Storage cap (uF)</t>
   </si>
   <si>
-    <t>LDO+bridge voltage drop (V)</t>
-  </si>
-  <si>
     <t>+5V</t>
   </si>
   <si>
-    <t xml:space="preserve">2xOPA189 </t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>LDO powerline noise (uV)</t>
   </si>
   <si>
@@ -122,10 +96,70 @@
     <t>Vectron C4550A1-0213</t>
   </si>
   <si>
-    <t>+5V high cur</t>
-  </si>
-  <si>
-    <t>ADR1399</t>
+    <t>Напряжение обмотки</t>
+  </si>
+  <si>
+    <t>Ток обмотки</t>
+  </si>
+  <si>
+    <t>Мощьность VA</t>
+  </si>
+  <si>
+    <t>Напряжение после выпрямления</t>
+  </si>
+  <si>
+    <t>Напряжение под типовой нагрузкой</t>
+  </si>
+  <si>
+    <t>Коэфицент</t>
+  </si>
+  <si>
+    <t>Напряжение рассчетное при 220В</t>
+  </si>
+  <si>
+    <t>Напряжение рассчетное при 253В</t>
+  </si>
+  <si>
+    <t>ОСМ Т 230/Э/60-30/40-20/7-0.025-50</t>
+  </si>
+  <si>
+    <t>ОСМ Т 230/Э/50-25/30-15/5-0.025-50</t>
+  </si>
+  <si>
+    <t>Dissipation on LDO (W)</t>
+  </si>
+  <si>
+    <t>Dissipation on LDO:</t>
+  </si>
+  <si>
+    <t>WEG010016A</t>
+  </si>
+  <si>
+    <t>LM399AH</t>
+  </si>
+  <si>
+    <t>6xOPA189</t>
+  </si>
+  <si>
+    <t>LTC2057HVHMS</t>
+  </si>
+  <si>
+    <t>LM3x7</t>
+  </si>
+  <si>
+    <t>XC9572XL</t>
+  </si>
+  <si>
+    <t>LTC6752HS5</t>
+  </si>
+  <si>
+    <t>SN74LV1T34</t>
+  </si>
+  <si>
+    <t>Unreg. voltage (VDC) CoilV3</t>
+  </si>
+  <si>
+    <t>LDO voltage drop (V)</t>
   </si>
 </sst>
 </file>
@@ -167,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -258,19 +292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -434,17 +455,103 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -457,29 +564,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -488,27 +588,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -518,29 +629,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -822,551 +970,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="17" max="18" width="10.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.36328125" customWidth="1"/>
-    <col min="20" max="20" width="13.36328125" customWidth="1"/>
+    <col min="1" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" customWidth="1"/>
+    <col min="11" max="12" width="11.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="19" max="20" width="10.6328125" customWidth="1"/>
+    <col min="21" max="21" width="12.36328125" customWidth="1"/>
+    <col min="22" max="22" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="P1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48">
+        <v>50</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49">
+        <v>15</v>
+      </c>
+      <c r="K2" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="L2" s="49">
+        <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="24" t="s">
+      <c r="M2" s="49">
+        <v>6</v>
+      </c>
+      <c r="N2" s="50">
+        <v>11.2</v>
+      </c>
+      <c r="O2" s="37">
+        <f>SUM(B2:N2)+SUM(B3:N3)</f>
+        <v>321.8</v>
+      </c>
+      <c r="P2" s="38">
+        <f>O2*5/1000</f>
+        <v>1.609</v>
+      </c>
+      <c r="Q2" s="39">
+        <f>'Рассчет трансформатора Версия 3'!G6</f>
+        <v>9.9329999999999998</v>
+      </c>
+      <c r="R2" s="40">
+        <v>6800</v>
+      </c>
+      <c r="S2" s="38">
+        <f>((O2/1000)*0.02)/(R2/1000000)</f>
+        <v>0.94647058823529429</v>
+      </c>
+      <c r="T2" s="38">
+        <f>(S2/10000)*1000000</f>
+        <v>94.64705882352942</v>
+      </c>
+      <c r="U2" s="41">
+        <f>Q2-S2/2-5</f>
+        <v>4.4597647058823533</v>
+      </c>
+      <c r="V2" s="35">
+        <f>(Q2-5)*O2/1000</f>
+        <v>1.5874394000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4">
-        <f>(3.3-1.5)</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4">
-        <v>6</v>
-      </c>
-      <c r="L2" s="9">
-        <v>11.2</v>
-      </c>
-      <c r="M2" s="35">
-        <f>SUM(B2:L2)</f>
-        <v>45.099999999999994</v>
-      </c>
-      <c r="N2" s="14">
-        <f>M2*3.3/1000</f>
-        <v>0.14882999999999999</v>
-      </c>
-      <c r="O2" s="29">
-        <f>5*1.41</f>
-        <v>7.05</v>
-      </c>
-      <c r="P2" s="4">
-        <v>820</v>
-      </c>
-      <c r="Q2" s="14">
-        <f>((M2/1000)*0.02)/(P2/1000000)</f>
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="R2" s="27">
-        <f>(Q2/10000)*1000000</f>
-        <v>109.99999999999999</v>
-      </c>
-      <c r="S2" s="16">
-        <f>O2-Q2/2-3.3</f>
-        <v>3.2</v>
-      </c>
-      <c r="T2" s="25">
-        <f>S2*M2/1000</f>
-        <v>0.14432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="B3" s="51">
         <v>200</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="35">
-        <f t="shared" ref="M3:M8" si="0">SUM(B3:L3)</f>
-        <v>200</v>
-      </c>
-      <c r="N3" s="14">
-        <f>M3*5/1000</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="29">
-        <f>5*1.41</f>
-        <v>7.05</v>
-      </c>
-      <c r="P3" s="4">
-        <v>6800</v>
-      </c>
-      <c r="Q3" s="14">
-        <f>((M3/1000)*0.02)/(P3/1000000)</f>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="R3" s="27">
-        <f>(Q3/10000)*1000000</f>
-        <v>58.82352941176471</v>
-      </c>
-      <c r="S3" s="16">
-        <f>O3-Q3/2-5</f>
-        <v>1.7558823529411764</v>
-      </c>
-      <c r="T3" s="25">
-        <f>S3*M3/1000</f>
-        <v>0.35117647058823531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="C3" s="52"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <f>1.5+0.5</f>
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="G3" s="2">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="36"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="2">
+        <f>18*2</f>
+        <v>36</v>
+      </c>
+      <c r="E4" s="2">
+        <f>1.3*6</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="F4" s="2">
+        <f>7+5</f>
+        <v>12</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <f>5.7+5.7</f>
+        <v>11.4</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="35">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N4" s="13">
-        <f>M4*5/1000</f>
-        <v>0.01</v>
-      </c>
-      <c r="O4" s="30">
-        <f>15*1.41</f>
-        <v>21.15</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="15">
-        <f>O4-Q6/2-5</f>
-        <v>15.578571428571426</v>
-      </c>
-      <c r="T4" s="26">
-        <f>S4*M4/1000</f>
-        <v>3.1157142857142852E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="22">
+        <f t="shared" ref="O4:O6" si="0">SUM(B4:N4)</f>
+        <v>67.2</v>
+      </c>
+      <c r="P4" s="8">
+        <f>O4*15/1000</f>
+        <v>1.008</v>
+      </c>
+      <c r="Q4" s="20">
+        <f>'Рассчет трансформатора Версия 3'!G4</f>
+        <v>26.319999999999997</v>
+      </c>
+      <c r="R4" s="2">
+        <v>2200</v>
+      </c>
+      <c r="S4" s="8">
+        <f>((O4/1000)*0.02)/(R4/1000000)</f>
+        <v>0.61090909090909096</v>
+      </c>
+      <c r="T4" s="19">
+        <f>(S4/10000)*1000000</f>
+        <v>61.090909090909093</v>
+      </c>
+      <c r="U4" s="9">
+        <f>Q4-S4/2-15</f>
+        <v>11.014545454545452</v>
+      </c>
+      <c r="V4" s="18">
+        <f>(Q4-15)*O4/1000</f>
+        <v>0.76070399999999982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="6">
-        <v>8</v>
-      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="2">
-        <f>0.9*4</f>
-        <v>3.6</v>
+        <f>D4+1.3</f>
+        <v>37.299999999999997</v>
       </c>
       <c r="E5" s="2">
+        <f>E4</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="F5" s="2">
         <f>7+5</f>
         <v>12</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <f>1.7*2</f>
-        <v>3.4</v>
-      </c>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <f>I4</f>
+        <v>11.4</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="35">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="22">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="N5" s="13">
-        <f>M5*15/1000</f>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="O5" s="30">
-        <f>15*1.41</f>
-        <v>21.15</v>
-      </c>
-      <c r="P5" s="2">
-        <v>560</v>
-      </c>
-      <c r="Q5" s="13">
-        <f>((M5/1000)*0.02)/(P5/1000000)</f>
-        <v>0.96428571428571441</v>
-      </c>
-      <c r="R5" s="27">
-        <f>(Q5/10000)*1000000</f>
-        <v>96.428571428571445</v>
-      </c>
-      <c r="S5" s="16">
-        <f>O5-Q5/2-15</f>
-        <v>5.6678571428571409</v>
-      </c>
-      <c r="T5" s="26">
-        <f>S5*M5/1000</f>
-        <v>0.15303214285714281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="6">
-        <f>8+3</f>
+        <v>68.5</v>
+      </c>
+      <c r="P5" s="8">
+        <f>O5*15/1000</f>
+        <v>1.0275000000000001</v>
+      </c>
+      <c r="Q5" s="20">
+        <f>Q4</f>
+        <v>26.319999999999997</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2200</v>
+      </c>
+      <c r="S5" s="8">
+        <f>(((O3+O5)/1000)*0.02)/(R5/1000000)</f>
+        <v>0.6227272727272728</v>
+      </c>
+      <c r="T5" s="19">
+        <f>(S5/10000)*1000000</f>
+        <v>62.272727272727273</v>
+      </c>
+      <c r="U5" s="9">
+        <f>Q5-S5/2-15</f>
+        <v>11.008636363636359</v>
+      </c>
+      <c r="V5" s="18">
+        <f>(Q5-15)*O5/1000</f>
+        <v>0.77541999999999978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25">
+        <v>0.88</v>
+      </c>
+      <c r="I6" s="25">
+        <v>4.2</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="24">
+        <f t="shared" si="0"/>
+        <v>5.08</v>
+      </c>
+      <c r="P6" s="8">
+        <f>O6*30/1000</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="Q6" s="20">
+        <f>'Рассчет трансформатора Версия 3'!G2</f>
+        <v>42.48</v>
+      </c>
+      <c r="R6" s="2">
+        <v>470</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" ref="S6" si="1">((O6/1000)*0.02)/(R6/1000000)</f>
+        <v>0.21617021276595746</v>
+      </c>
+      <c r="T6" s="19">
+        <f t="shared" ref="T6:T7" si="2">(S6/10000)*1000000</f>
+        <v>21.617021276595747</v>
+      </c>
+      <c r="U6" s="9">
+        <f>Q6-S6/2-30</f>
+        <v>12.371914893617017</v>
+      </c>
+      <c r="V6" s="18">
+        <f>(Q6-30)*O6/1000</f>
+        <v>6.3398399999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
+        <f>H6</f>
+        <v>0.88</v>
+      </c>
+      <c r="I7" s="25">
+        <f>I6</f>
+        <v>4.2</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24">
+        <f t="shared" ref="O7" si="3">SUM(B7:N7)</f>
+        <v>5.08</v>
+      </c>
+      <c r="P7" s="8">
+        <f>O7*30/1000</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="Q7" s="20">
+        <f>Q6</f>
+        <v>42.48</v>
+      </c>
+      <c r="R7" s="2">
+        <v>470</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" ref="S7" si="4">((O7/1000)*0.02)/(R7/1000000)</f>
+        <v>0.21617021276595746</v>
+      </c>
+      <c r="T7" s="19">
+        <f t="shared" si="2"/>
+        <v>21.617021276595747</v>
+      </c>
+      <c r="U7" s="9">
+        <f>Q7-S7/2-30</f>
+        <v>12.371914893617017</v>
+      </c>
+      <c r="V7" s="18">
+        <f>(Q7-30)*O7/1000</f>
+        <v>6.3398399999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="6">
+        <f>SUM(P2:P7)</f>
+        <v>3.9493</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <f>D5</f>
-        <v>3.6</v>
-      </c>
-      <c r="E6" s="2">
-        <f>7+5</f>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="6">
+        <f>SUM(V2:V7)</f>
+        <v>3.2503601999999994</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <f>H5</f>
-        <v>3.4</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="35">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="N6" s="13">
-        <f>M6*15/1000</f>
-        <v>0.45</v>
-      </c>
-      <c r="O6" s="30">
-        <f>15*1.41</f>
-        <v>21.15</v>
-      </c>
-      <c r="P6" s="2">
-        <v>560</v>
-      </c>
-      <c r="Q6" s="13">
-        <f>(((M4+M6)/1000)*0.02)/(P6/1000000)</f>
-        <v>1.142857142857143</v>
-      </c>
-      <c r="R6" s="27">
-        <f>(Q6/10000)*1000000</f>
-        <v>114.28571428571429</v>
-      </c>
-      <c r="S6" s="16">
-        <f>O6-Q6/2-15</f>
-        <v>5.5785714285714256</v>
-      </c>
-      <c r="T6" s="26">
-        <f>S6*M6/1000</f>
-        <v>0.16735714285714279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="43">
-        <v>20</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="40">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N7" s="13">
-        <f>M7*30/1000</f>
-        <v>0.6</v>
-      </c>
-      <c r="O7" s="30">
-        <f>25*1.41</f>
-        <v>35.25</v>
-      </c>
-      <c r="P7" s="2">
-        <v>560</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" ref="Q7:Q8" si="1">((M7/1000)*0.02)/(P7/1000000)</f>
-        <v>0.71428571428571441</v>
-      </c>
-      <c r="R7" s="27">
-        <f t="shared" ref="R7:R8" si="2">(Q7/10000)*1000000</f>
-        <v>71.428571428571445</v>
-      </c>
-      <c r="S7" s="16">
-        <f>O7-Q7/2-30</f>
-        <v>4.8928571428571459</v>
-      </c>
-      <c r="T7" s="26">
-        <f t="shared" ref="T7:T8" si="3">S7*M7/1000</f>
-        <v>9.785714285714292E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="43">
-        <v>20</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="40">
-        <f t="shared" ref="M8" si="4">SUM(B8:L8)</f>
-        <v>20</v>
-      </c>
-      <c r="N8" s="13">
-        <f>M8*30/1000</f>
-        <v>0.6</v>
-      </c>
-      <c r="O8" s="30">
-        <f>25*1.41</f>
-        <v>35.25</v>
-      </c>
-      <c r="P8" s="2">
-        <v>560</v>
-      </c>
-      <c r="Q8" s="13">
-        <f t="shared" ref="Q8" si="5">((M8/1000)*0.02)/(P8/1000000)</f>
-        <v>0.71428571428571441</v>
-      </c>
-      <c r="R8" s="27">
-        <f t="shared" si="2"/>
-        <v>71.428571428571445</v>
-      </c>
-      <c r="S8" s="16">
-        <f>O8-Q8/2-30</f>
-        <v>4.8928571428571459</v>
-      </c>
-      <c r="T8" s="26">
-        <f t="shared" si="3"/>
-        <v>9.785714285714292E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="11">
-        <f>SUM(N2:N8)</f>
-        <v>3.2138300000000002</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="11">
-        <f>SUM(T2:T8)</f>
-        <v>1.0427571848739496</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="6">
+        <f>230*F11/1000</f>
+        <v>0.69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="11">
-        <f>230*E12/1000</f>
-        <v>0.69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="12">
-        <f>E13+E11+E10</f>
-        <v>4.94658718487395</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="7">
+        <f>F12+F10+F9</f>
+        <v>7.8896601999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
+  <mergeCells count="13">
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="29.08984375" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2*C2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <f>(B2*1.41)-1.2</f>
+        <v>41.099999999999994</v>
+      </c>
+      <c r="G2" s="2">
+        <f>B2*H12</f>
+        <v>42.48</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2*1.1</f>
+        <v>46.728000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="32"/>
+      <c r="B3" s="2">
+        <f>-B2</f>
+        <v>-30</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2">
+        <f>-B3*C3</f>
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <f>(B3*1.41)+1.2</f>
+        <v>-41.099999999999994</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G6" si="0">B3*H13</f>
+        <v>-42.48</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H6" si="1">G3*1.1</f>
+        <v>-46.728000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="32"/>
+      <c r="B4" s="2">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="2">
+        <f>B4*C4</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <f>(B4*1.41)-1.2</f>
+        <v>27</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>26.319999999999997</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>28.951999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="32"/>
+      <c r="B5" s="2">
+        <f>-B4</f>
+        <v>-20</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4</f>
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="2">
+        <f>-B5*C5</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <f>(B5*1.41)+1.2</f>
+        <v>-27</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>-26.319999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>-28.951999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="32"/>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D6" s="2">
+        <f>B6*C6</f>
+        <v>11.9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <f>(B6*1.41)-0.6</f>
+        <v>9.27</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9329999999999998</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>10.926300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="32"/>
+      <c r="B12" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="2">
+        <f>B12*C12</f>
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <f>(B12*1.41)-1.2</f>
+        <v>34.049999999999997</v>
+      </c>
+      <c r="G12" s="34">
+        <v>35.4</v>
+      </c>
+      <c r="H12" s="2">
+        <f>G12/B12</f>
+        <v>1.4159999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="32"/>
+      <c r="B13" s="2">
+        <f>-B12</f>
+        <v>-25</v>
+      </c>
+      <c r="C13" s="2">
+        <f>C12</f>
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="2">
+        <f>-B13*C13</f>
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f>(B13*1.41)+1.2</f>
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="G13" s="34">
+        <v>-35.4</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13:H16" si="2">G13/B13</f>
+        <v>1.4159999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="32"/>
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="2">
+        <f>B14*C14</f>
+        <v>3.75</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <f>(B14*1.41)-1.2</f>
+        <v>19.95</v>
+      </c>
+      <c r="G14" s="34">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3159999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="32"/>
+      <c r="B15" s="2">
+        <f>-B14</f>
+        <v>-15</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C14</f>
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="2">
+        <f>-B15*C15</f>
+        <v>3.75</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <f>(B15*1.41)+1.2</f>
+        <v>-19.95</v>
+      </c>
+      <c r="G15" s="34">
+        <v>-19.739999999999998</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3159999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="32"/>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="2">
+        <f>B16*C16</f>
+        <v>12.5</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <f>(B16*1.41)-0.6</f>
+        <v>6.45</v>
+      </c>
+      <c r="G16" s="34">
+        <f t="shared" ref="G13:G16" si="3">F16*1.1</f>
+        <v>7.0950000000000006</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>1.419</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <f>SUM(D12:D16)</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A11:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Рассчет тепловыделения.xlsx
+++ b/docs/Рассчет тепловыделения.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Рассчет трансформатора Версия 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Рассчет трансформатора" sheetId="2" r:id="rId2"/>
+    <sheet name="ldo resistors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
   <si>
     <t>DAC11001A</t>
   </si>
@@ -114,9 +115,6 @@
     <t>Коэфицент</t>
   </si>
   <si>
-    <t>Напряжение рассчетное при 220В</t>
-  </si>
-  <si>
     <t>Напряжение рассчетное при 253В</t>
   </si>
   <si>
@@ -141,9 +139,6 @@
     <t>6xOPA189</t>
   </si>
   <si>
-    <t>LTC2057HVHMS</t>
-  </si>
-  <si>
     <t>LM3x7</t>
   </si>
   <si>
@@ -160,6 +155,39 @@
   </si>
   <si>
     <t>LDO voltage drop (V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Vref</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Iadj</t>
+  </si>
+  <si>
+    <t>Vo</t>
+  </si>
+  <si>
+    <t>Micron-GLIN</t>
+  </si>
+  <si>
+    <t>2xLTC2057HV</t>
   </si>
 </sst>
 </file>
@@ -170,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +210,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -201,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -555,6 +592,15 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -564,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -574,7 +620,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -620,56 +665,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -689,6 +686,62 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -970,529 +1023,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="10" width="7.6328125" customWidth="1"/>
-    <col min="11" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="19" max="20" width="10.6328125" customWidth="1"/>
-    <col min="21" max="21" width="12.36328125" customWidth="1"/>
-    <col min="22" max="22" width="13.36328125" customWidth="1"/>
+    <col min="2" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" customWidth="1"/>
+    <col min="11" max="11" width="7.6328125" customWidth="1"/>
+    <col min="12" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="11.08984375" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="20" max="21" width="10.6328125" customWidth="1"/>
+    <col min="22" max="22" width="12.36328125" customWidth="1"/>
+    <col min="23" max="23" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="S1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="W1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31">
         <v>50</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32">
         <v>0.1</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32">
         <v>15</v>
       </c>
-      <c r="K2" s="49">
+      <c r="L2" s="32">
         <v>4.5</v>
       </c>
-      <c r="L2" s="49">
+      <c r="M2" s="32">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="M2" s="49">
+      <c r="N2" s="32">
         <v>6</v>
       </c>
-      <c r="N2" s="50">
+      <c r="O2" s="33">
         <v>11.2</v>
       </c>
-      <c r="O2" s="37">
-        <f>SUM(B2:N2)+SUM(B3:N3)</f>
-        <v>321.8</v>
-      </c>
-      <c r="P2" s="38">
-        <f>O2*5/1000</f>
-        <v>1.609</v>
+      <c r="P2" s="45">
+        <f>SUM(C2:O2)+SUM(C3:O3)</f>
+        <v>269.8</v>
       </c>
       <c r="Q2" s="39">
-        <f>'Рассчет трансформатора Версия 3'!G6</f>
+        <f>P2*5/1000</f>
+        <v>1.349</v>
+      </c>
+      <c r="R2" s="47">
+        <f>'Рассчет трансформатора'!G6</f>
         <v>9.9329999999999998</v>
       </c>
-      <c r="R2" s="40">
+      <c r="S2" s="49">
         <v>6800</v>
       </c>
-      <c r="S2" s="38">
-        <f>((O2/1000)*0.02)/(R2/1000000)</f>
-        <v>0.94647058823529429</v>
-      </c>
-      <c r="T2" s="38">
-        <f>(S2/10000)*1000000</f>
-        <v>94.64705882352942</v>
-      </c>
-      <c r="U2" s="41">
-        <f>Q2-S2/2-5</f>
-        <v>4.4597647058823533</v>
-      </c>
-      <c r="V2" s="35">
-        <f>(Q2-5)*O2/1000</f>
-        <v>1.5874394000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="T2" s="39">
+        <f>((P2/1000)*0.02)/(S2/1000000)</f>
+        <v>0.79352941176470593</v>
+      </c>
+      <c r="U2" s="39">
+        <f>(T2/10000)*1000000</f>
+        <v>79.352941176470594</v>
+      </c>
+      <c r="V2" s="41">
+        <f>R2-T2/2-5</f>
+        <v>4.5362352941176471</v>
+      </c>
+      <c r="W2" s="43">
+        <f>(R2-5)*P2/1000</f>
+        <v>1.3309233999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="55"/>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="51">
-        <v>200</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="34">
+        <v>148</v>
+      </c>
+      <c r="D3" s="35"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
         <f>1.5+0.5</f>
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>30</v>
       </c>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="36"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="44"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="55"/>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="2">
+      <c r="C4" s="37"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="2">
         <f>18*2</f>
         <v>36</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f>1.3*6</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <f>7+5</f>
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
         <f>5.7+5.7</f>
         <v>11.4</v>
       </c>
-      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="22">
-        <f t="shared" ref="O4:O6" si="0">SUM(B4:N4)</f>
+      <c r="N4" s="2"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="21">
+        <f t="shared" ref="P4:P6" si="0">SUM(C4:O4)</f>
         <v>67.2</v>
       </c>
-      <c r="P4" s="8">
-        <f>O4*15/1000</f>
+      <c r="Q4" s="7">
+        <f>P4*15/1000</f>
         <v>1.008</v>
       </c>
-      <c r="Q4" s="20">
-        <f>'Рассчет трансформатора Версия 3'!G4</f>
+      <c r="R4" s="19">
+        <f>'Рассчет трансформатора'!G4</f>
         <v>26.319999999999997</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>2200</v>
       </c>
-      <c r="S4" s="8">
-        <f>((O4/1000)*0.02)/(R4/1000000)</f>
+      <c r="T4" s="7">
+        <f>((P4/1000)*0.02)/(S4/1000000)</f>
         <v>0.61090909090909096</v>
       </c>
-      <c r="T4" s="19">
-        <f>(S4/10000)*1000000</f>
+      <c r="U4" s="18">
+        <f>(T4/10000)*1000000</f>
         <v>61.090909090909093</v>
       </c>
-      <c r="U4" s="9">
-        <f>Q4-S4/2-15</f>
+      <c r="V4" s="8">
+        <f>R4-T4/2-15</f>
         <v>11.014545454545452</v>
       </c>
-      <c r="V4" s="18">
-        <f>(Q4-15)*O4/1000</f>
+      <c r="W4" s="17">
+        <f>(R4-15)*P4/1000</f>
         <v>0.76070399999999982</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="55"/>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="2">
-        <f>D4+1.3</f>
+      <c r="C5" s="37"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="2">
+        <f>E4+1.3</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="E5" s="2">
-        <f>E4</f>
+      <c r="F5" s="2">
+        <f>F4</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f>7+5</f>
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <f>I4</f>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <f>J4</f>
         <v>11.4</v>
       </c>
-      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="22">
+      <c r="N5" s="2"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="21">
         <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
-      <c r="P5" s="8">
-        <f>O5*15/1000</f>
+      <c r="Q5" s="7">
+        <f>P5*15/1000</f>
         <v>1.0275000000000001</v>
       </c>
-      <c r="Q5" s="20">
-        <f>Q4</f>
+      <c r="R5" s="19">
+        <f>R4</f>
         <v>26.319999999999997</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>2200</v>
       </c>
-      <c r="S5" s="8">
-        <f>(((O3+O5)/1000)*0.02)/(R5/1000000)</f>
+      <c r="T5" s="7">
+        <f>(((P3+P5)/1000)*0.02)/(S5/1000000)</f>
         <v>0.6227272727272728</v>
       </c>
-      <c r="T5" s="19">
-        <f>(S5/10000)*1000000</f>
+      <c r="U5" s="18">
+        <f>(T5/10000)*1000000</f>
         <v>62.272727272727273</v>
       </c>
-      <c r="U5" s="9">
-        <f>Q5-S5/2-15</f>
+      <c r="V5" s="8">
+        <f>R5-T5/2-15</f>
         <v>11.008636363636359</v>
       </c>
-      <c r="V5" s="18">
-        <f>(Q5-15)*O5/1000</f>
+      <c r="W5" s="17">
+        <f>(R5-15)*P5/1000</f>
         <v>0.77541999999999978</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="55"/>
+      <c r="B6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25">
-        <v>0.88</v>
-      </c>
-      <c r="I6" s="25">
+      <c r="C6" s="26"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24">
+        <f>0.88*2</f>
+        <v>1.76</v>
+      </c>
+      <c r="J6" s="24">
         <v>4.2</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="24">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="23">
         <f t="shared" si="0"/>
-        <v>5.08</v>
-      </c>
-      <c r="P6" s="8">
-        <f>O6*30/1000</f>
-        <v>0.15240000000000001</v>
-      </c>
-      <c r="Q6" s="20">
-        <f>'Рассчет трансформатора Версия 3'!G2</f>
+        <v>5.96</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>P6*30/1000</f>
+        <v>0.17880000000000001</v>
+      </c>
+      <c r="R6" s="19">
+        <f>'Рассчет трансформатора'!G2</f>
         <v>42.48</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>470</v>
       </c>
-      <c r="S6" s="8">
-        <f t="shared" ref="S6" si="1">((O6/1000)*0.02)/(R6/1000000)</f>
-        <v>0.21617021276595746</v>
-      </c>
-      <c r="T6" s="19">
-        <f t="shared" ref="T6:T7" si="2">(S6/10000)*1000000</f>
-        <v>21.617021276595747</v>
-      </c>
-      <c r="U6" s="9">
-        <f>Q6-S6/2-30</f>
-        <v>12.371914893617017</v>
-      </c>
-      <c r="V6" s="18">
-        <f>(Q6-30)*O6/1000</f>
-        <v>6.3398399999999994E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="T6" s="7">
+        <f t="shared" ref="T6" si="1">((P6/1000)*0.02)/(S6/1000000)</f>
+        <v>0.25361702127659574</v>
+      </c>
+      <c r="U6" s="18">
+        <f t="shared" ref="U6:U7" si="2">(T6/10000)*1000000</f>
+        <v>25.361702127659576</v>
+      </c>
+      <c r="V6" s="8">
+        <f>R6-T6/2-30</f>
+        <v>12.353191489361699</v>
+      </c>
+      <c r="W6" s="17">
+        <f>(R6-30)*P6/1000</f>
+        <v>7.4380799999999983E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="55"/>
+      <c r="B7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25">
-        <f>H6</f>
-        <v>0.88</v>
-      </c>
-      <c r="I7" s="25">
+      <c r="C7" s="26"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24">
         <f>I6</f>
+        <v>1.76</v>
+      </c>
+      <c r="J7" s="24">
+        <f>J6</f>
         <v>4.2</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24">
-        <f t="shared" ref="O7" si="3">SUM(B7:N7)</f>
-        <v>5.08</v>
-      </c>
-      <c r="P7" s="8">
-        <f>O7*30/1000</f>
-        <v>0.15240000000000001</v>
-      </c>
-      <c r="Q7" s="20">
-        <f>Q6</f>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="23">
+        <f t="shared" ref="P7" si="3">SUM(C7:O7)</f>
+        <v>5.96</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>P7*30/1000</f>
+        <v>0.17880000000000001</v>
+      </c>
+      <c r="R7" s="19">
+        <f>R6</f>
         <v>42.48</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>470</v>
       </c>
-      <c r="S7" s="8">
-        <f t="shared" ref="S7" si="4">((O7/1000)*0.02)/(R7/1000000)</f>
-        <v>0.21617021276595746</v>
-      </c>
-      <c r="T7" s="19">
+      <c r="T7" s="7">
+        <f t="shared" ref="T7" si="4">((P7/1000)*0.02)/(S7/1000000)</f>
+        <v>0.25361702127659574</v>
+      </c>
+      <c r="U7" s="18">
         <f t="shared" si="2"/>
-        <v>21.617021276595747</v>
-      </c>
-      <c r="U7" s="9">
-        <f>Q7-S7/2-30</f>
-        <v>12.371914893617017</v>
-      </c>
-      <c r="V7" s="18">
-        <f>(Q7-30)*O7/1000</f>
-        <v>6.3398399999999994E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+        <v>25.361702127659576</v>
+      </c>
+      <c r="V7" s="8">
+        <f>R7-T7/2-30</f>
+        <v>12.353191489361699</v>
+      </c>
+      <c r="W7" s="17">
+        <f>(R7-30)*P7/1000</f>
+        <v>7.4380799999999983E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="55"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="V8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="D8" s="1"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="55"/>
+      <c r="B9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="6">
-        <f>SUM(P2:P7)</f>
-        <v>3.9493</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="6">
+        <f>SUM(Q2:Q7)</f>
+        <v>3.7420999999999998</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="6">
-        <f>SUM(V2:V7)</f>
-        <v>3.2503601999999994</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="10" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="55"/>
+      <c r="B10" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="6">
+        <f>SUM(W2:W7)</f>
+        <v>3.015809</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="55"/>
+      <c r="B12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="6">
-        <f>230*F11/1000</f>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6">
+        <f>230*G11/1000</f>
         <v>0.69</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:23" s="58" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="7">
-        <f>F12+F10+F9</f>
-        <v>7.8896601999999998</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57">
+        <f>G12+G10+G9</f>
+        <v>7.4479089999999992</v>
+      </c>
+      <c r="H13" s="58" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="T2:T3"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1504,7 +1576,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1519,8 +1591,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>31</v>
+      <c r="A1" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
@@ -1536,14 +1608,14 @@
         <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="2">
         <v>30</v>
       </c>
@@ -1569,7 +1641,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="2">
         <f>-B2</f>
         <v>-30</v>
@@ -1597,7 +1669,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="2">
         <v>20</v>
       </c>
@@ -1623,7 +1695,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="2">
         <f>-B4</f>
         <v>-20</v>
@@ -1651,7 +1723,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2">
         <v>7</v>
       </c>
@@ -1683,8 +1755,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
-        <v>32</v>
+      <c r="A11" s="54" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -1702,12 +1774,12 @@
       <c r="G11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="2">
         <v>25</v>
       </c>
@@ -1723,7 +1795,7 @@
         <f>(B12*1.41)-1.2</f>
         <v>34.049999999999997</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="29">
         <v>35.4</v>
       </c>
       <c r="H12" s="2">
@@ -1732,7 +1804,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2">
         <f>-B12</f>
         <v>-25</v>
@@ -1750,7 +1822,7 @@
         <f>(B13*1.41)+1.2</f>
         <v>-34.049999999999997</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="29">
         <v>-35.4</v>
       </c>
       <c r="H13" s="2">
@@ -1759,7 +1831,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2">
         <v>15</v>
       </c>
@@ -1775,7 +1847,7 @@
         <f>(B14*1.41)-1.2</f>
         <v>19.95</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="29">
         <v>19.739999999999998</v>
       </c>
       <c r="H14" s="2">
@@ -1784,7 +1856,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2">
         <f>-B14</f>
         <v>-15</v>
@@ -1802,7 +1874,7 @@
         <f>(B15*1.41)+1.2</f>
         <v>-19.95</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="29">
         <v>-19.739999999999998</v>
       </c>
       <c r="H15" s="2">
@@ -1811,7 +1883,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -1827,8 +1899,8 @@
         <f>(B16*1.41)-0.6</f>
         <v>6.45</v>
       </c>
-      <c r="G16" s="34">
-        <f t="shared" ref="G13:G16" si="3">F16*1.1</f>
+      <c r="G16" s="29">
+        <f t="shared" ref="G16" si="3">F16*1.1</f>
         <v>7.0950000000000006</v>
       </c>
       <c r="H16" s="2">
@@ -1849,4 +1921,382 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2">
+        <f>B3*(1+(B5/B4))+(B2*B5)</f>
+        <v>15.006363636363634</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2">
+        <f>-F3*(1+(F5/F4))+(-F2*F5)</f>
+        <v>-15.042363636363635</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.4999999999999994E-5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2">
+        <f>B3</f>
+        <v>1.25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2">
+        <v>220</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2">
+        <f>B4</f>
+        <v>220</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="6">
+        <f>(F$19/F4)*F$19</f>
+        <v>7.1022727272727279E-3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2">
+        <f>B5</f>
+        <v>2400</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6">
+        <f>((F$19+F1)/F5)*(F$19+F1)</f>
+        <v>7.9262206115702463E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B11*(1+(B13/B12))+(B10*B13)</f>
+        <v>29.923333333333336</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2">
+        <f>-F11*(1+(F13/F12))+(-F10*F13)</f>
+        <v>-30.025333333333336</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.4999999999999994E-5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2">
+        <f>B11</f>
+        <v>1.25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2">
+        <v>300</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2">
+        <f>B12</f>
+        <v>300</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="6">
+        <f>(F$19/F12)*F$19</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2">
+        <f>B13</f>
+        <v>6800</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="6">
+        <f>((F$19+F9)/F13)*(F$19+F9)</f>
+        <v>0.12176761888888891</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2">
+        <f>B19*(1+(B21/B20))+(B18*B21)</f>
+        <v>7.5549999999999997</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2">
+        <f>-F19*(1+(F21/F20))+(-F18*F21)</f>
+        <v>-7.5715000000000003</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6.4999999999999994E-5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2">
+        <f>B19</f>
+        <v>1.25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2">
+        <v>220</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2">
+        <f>B20</f>
+        <v>220</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="6">
+        <f>(F$19/F20)*F$19</f>
+        <v>7.1022727272727279E-3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2">
+        <f>B21</f>
+        <v>1100</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="6">
+        <f>((F$19+F17)/F21)*(F$19+F17)</f>
+        <v>3.6328511136363636E-2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/Рассчет тепловыделения.xlsx
+++ b/docs/Рассчет тепловыделения.xlsx
@@ -148,9 +148,6 @@
     <t>LTC6752HS5</t>
   </si>
   <si>
-    <t>SN74LV1T34</t>
-  </si>
-  <si>
     <t>Unreg. voltage (VDC) CoilV3</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>2xLTC2057HV</t>
+  </si>
+  <si>
+    <t>2xSN74LV1T34</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -627,9 +627,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -651,9 +648,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -686,6 +680,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -722,26 +733,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1026,7 +1032,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1037,10 +1043,11 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" customWidth="1"/>
     <col min="8" max="8" width="13.08984375" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
     <col min="10" max="10" width="7.7265625" customWidth="1"/>
     <col min="11" max="11" width="7.6328125" customWidth="1"/>
-    <col min="12" max="13" width="11.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
     <col min="14" max="14" width="11.08984375" customWidth="1"/>
     <col min="15" max="15" width="15.1796875" customWidth="1"/>
     <col min="16" max="16" width="9.54296875" customWidth="1"/>
@@ -1052,150 +1059,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
-        <v>52</v>
+      <c r="A1" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29">
         <v>50</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30">
         <v>0.1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30">
         <v>15</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="30">
         <v>4.5</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="30">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="30">
         <v>6</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="31">
         <v>11.2</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="50">
         <f>SUM(C2:O2)+SUM(C3:O3)</f>
         <v>269.8</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="44">
         <f>P2*5/1000</f>
         <v>1.349</v>
       </c>
-      <c r="R2" s="47">
+      <c r="R2" s="52">
         <f>'Рассчет трансформатора'!G6</f>
         <v>9.9329999999999998</v>
       </c>
-      <c r="S2" s="49">
+      <c r="S2" s="54">
         <v>6800</v>
       </c>
-      <c r="T2" s="39">
+      <c r="T2" s="44">
         <f>((P2/1000)*0.02)/(S2/1000000)</f>
         <v>0.79352941176470593</v>
       </c>
-      <c r="U2" s="39">
+      <c r="U2" s="44">
         <f>(T2/10000)*1000000</f>
         <v>79.352941176470594</v>
       </c>
-      <c r="V2" s="41">
+      <c r="V2" s="46">
         <f>R2-T2/2-5</f>
         <v>4.5362352941176471</v>
       </c>
-      <c r="W2" s="43">
+      <c r="W2" s="48">
         <f>(R2-5)*P2/1000</f>
         <v>1.3309233999999999</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="55"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="32">
         <v>148</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1211,23 +1218,23 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="44"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="49"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="55"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="2">
         <f>18*2</f>
         <v>36</v>
@@ -1250,8 +1257,8 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="21">
+      <c r="O4" s="34"/>
+      <c r="P4" s="19">
         <f t="shared" ref="P4:P6" si="0">SUM(C4:O4)</f>
         <v>67.2</v>
       </c>
@@ -1259,7 +1266,7 @@
         <f>P4*15/1000</f>
         <v>1.008</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <f>'Рассчет трансформатора'!G4</f>
         <v>26.319999999999997</v>
       </c>
@@ -1270,7 +1277,7 @@
         <f>((P4/1000)*0.02)/(S4/1000000)</f>
         <v>0.61090909090909096</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="17">
         <f>(T4/10000)*1000000</f>
         <v>61.090909090909093</v>
       </c>
@@ -1278,18 +1285,18 @@
         <f>R4-T4/2-15</f>
         <v>11.014545454545452</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="16">
         <f>(R4-15)*P4/1000</f>
         <v>0.76070399999999982</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="55"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="2">
         <f>E4+1.3</f>
         <v>37.299999999999997</v>
@@ -1312,8 +1319,8 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="21">
+      <c r="O5" s="34"/>
+      <c r="P5" s="19">
         <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
@@ -1321,7 +1328,7 @@
         <f>P5*15/1000</f>
         <v>1.0275000000000001</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="18">
         <f>R4</f>
         <v>26.319999999999997</v>
       </c>
@@ -1332,7 +1339,7 @@
         <f>(((P3+P5)/1000)*0.02)/(S5/1000000)</f>
         <v>0.6227272727272728</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="17">
         <f>(T5/10000)*1000000</f>
         <v>62.272727272727273</v>
       </c>
@@ -1340,35 +1347,35 @@
         <f>R5-T5/2-15</f>
         <v>11.008636363636359</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="16">
         <f>(R5-15)*P5/1000</f>
         <v>0.77541999999999978</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="55"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24">
+      <c r="C6" s="24"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22">
         <f>0.88*2</f>
         <v>1.76</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <v>4.2</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="23">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="21">
         <f t="shared" si="0"/>
         <v>5.96</v>
       </c>
@@ -1376,7 +1383,7 @@
         <f>P6*30/1000</f>
         <v>0.17880000000000001</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="18">
         <f>'Рассчет трансформатора'!G2</f>
         <v>42.48</v>
       </c>
@@ -1387,7 +1394,7 @@
         <f t="shared" ref="T6" si="1">((P6/1000)*0.02)/(S6/1000000)</f>
         <v>0.25361702127659574</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="17">
         <f t="shared" ref="U6:U7" si="2">(T6/10000)*1000000</f>
         <v>25.361702127659576</v>
       </c>
@@ -1395,36 +1402,36 @@
         <f>R6-T6/2-30</f>
         <v>12.353191489361699</v>
       </c>
-      <c r="W6" s="17">
+      <c r="W6" s="16">
         <f>(R6-30)*P6/1000</f>
         <v>7.4380799999999983E-2</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24">
+      <c r="C7" s="24"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22">
         <f>I6</f>
         <v>1.76</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="22">
         <f>J6</f>
         <v>4.2</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="23">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="21">
         <f t="shared" ref="P7" si="3">SUM(C7:O7)</f>
         <v>5.96</v>
       </c>
@@ -1432,7 +1439,7 @@
         <f>P7*30/1000</f>
         <v>0.17880000000000001</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="18">
         <f>R6</f>
         <v>42.48</v>
       </c>
@@ -1443,7 +1450,7 @@
         <f t="shared" ref="T7" si="4">((P7/1000)*0.02)/(S7/1000000)</f>
         <v>0.25361702127659574</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="17">
         <f t="shared" si="2"/>
         <v>25.361702127659576</v>
       </c>
@@ -1451,27 +1458,27 @@
         <f>R7-T7/2-30</f>
         <v>12.353191489361699</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="16">
         <f>(R7-30)*P7/1000</f>
         <v>7.4380799999999983E-2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="55"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="6">
         <f>SUM(Q2:Q7)</f>
         <v>3.7420999999999998</v>
@@ -1481,14 +1488,14 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="55"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="6">
         <f>SUM(W2:W7)</f>
         <v>3.015809</v>
@@ -1496,17 +1503,17 @@
       <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11">
         <v>3</v>
       </c>
@@ -1515,14 +1522,14 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="55"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="6">
         <f>230*G11/1000</f>
         <v>0.69</v>
@@ -1531,32 +1538,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="58" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56" t="s">
+    <row r="13" spans="1:23" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="39"/>
+      <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="37">
         <f>G12+G10+G9</f>
         <v>7.4479089999999992</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
@@ -1565,6 +1566,12 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1576,7 +1583,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1591,7 +1598,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1615,7 +1622,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="2">
         <v>30</v>
       </c>
@@ -1641,7 +1648,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="2">
         <f>-B2</f>
         <v>-30</v>
@@ -1669,7 +1676,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="2">
         <v>20</v>
       </c>
@@ -1695,7 +1702,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2">
         <f>-B4</f>
         <v>-20</v>
@@ -1723,7 +1730,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="2">
         <v>7</v>
       </c>
@@ -1755,7 +1762,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1774,12 +1781,12 @@
       <c r="G11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="2">
         <v>25</v>
       </c>
@@ -1795,7 +1802,7 @@
         <f>(B12*1.41)-1.2</f>
         <v>34.049999999999997</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>35.4</v>
       </c>
       <c r="H12" s="2">
@@ -1804,7 +1811,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="2">
         <f>-B12</f>
         <v>-25</v>
@@ -1822,7 +1829,7 @@
         <f>(B13*1.41)+1.2</f>
         <v>-34.049999999999997</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <v>-35.4</v>
       </c>
       <c r="H13" s="2">
@@ -1831,7 +1838,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="2">
         <v>15</v>
       </c>
@@ -1847,7 +1854,7 @@
         <f>(B14*1.41)-1.2</f>
         <v>19.95</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <v>19.739999999999998</v>
       </c>
       <c r="H14" s="2">
@@ -1856,7 +1863,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="2">
         <f>-B14</f>
         <v>-15</v>
@@ -1874,7 +1881,7 @@
         <f>(B15*1.41)+1.2</f>
         <v>-19.95</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <v>-19.739999999999998</v>
       </c>
       <c r="H15" s="2">
@@ -1883,7 +1890,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -1899,7 +1906,7 @@
         <f>(B16*1.41)-0.6</f>
         <v>6.45</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="27">
         <f t="shared" ref="G16" si="3">F16*1.1</f>
         <v>7.0950000000000006</v>
       </c>
@@ -1935,86 +1942,86 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2">
         <f>B3*(1+(B5/B4))+(B2*B5)</f>
         <v>15.006363636363634</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2">
         <f>-F3*(1+(F5/F4))+(-F2*F5)</f>
         <v>-15.042363636363635</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="2">
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2">
         <v>1.25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="2">
         <f>B3</f>
         <v>1.25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2">
         <v>220</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2">
         <f>B4</f>
         <v>220</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="6">
         <f>(F$19/F4)*F$19</f>
@@ -2026,23 +2033,23 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>2400</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F5" s="2">
         <f>B5</f>
         <v>2400</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="6">
         <f>((F$19+F1)/F5)*(F$19+F1)</f>
@@ -2054,86 +2061,86 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2">
         <f>B11*(1+(B13/B12))+(B10*B13)</f>
         <v>29.923333333333336</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2">
         <f>-F11*(1+(F13/F12))+(-F10*F13)</f>
         <v>-30.025333333333336</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F10" s="2">
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2">
         <v>1.25</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F11" s="2">
         <f>B11</f>
         <v>1.25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
         <v>300</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2">
         <f>B12</f>
         <v>300</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="6">
         <f>(F$19/F12)*F$19</f>
@@ -2145,23 +2152,23 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
         <v>6800</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="2">
         <f>B13</f>
         <v>6800</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="6">
         <f>((F$19+F9)/F13)*(F$19+F9)</f>
@@ -2173,86 +2180,86 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <f>B19*(1+(B21/B20))+(B18*B21)</f>
         <v>7.5549999999999997</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2">
         <f>-F19*(1+(F21/F20))+(-F18*F21)</f>
         <v>-7.5715000000000003</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="2">
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>1.25</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F19" s="2">
         <f>B19</f>
         <v>1.25</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2">
         <v>220</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2">
         <f>B20</f>
         <v>220</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="6">
         <f>(F$19/F20)*F$19</f>
@@ -2264,23 +2271,23 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
         <v>1100</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F21" s="2">
         <f>B21</f>
         <v>1100</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="6">
         <f>((F$19+F17)/F21)*(F$19+F17)</f>
@@ -2292,7 +2299,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
